--- a/data_set/tables.xlsx
+++ b/data_set/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BEntertainment_Rating_System\data_set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA40C6FF-C62F-4060-BAE5-D551172C03AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BABEEB-C2FB-4C85-81BE-9BE7136C01D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="6" xr2:uid="{956364CA-4336-4D8C-8AD0-A82128DBC29C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{956364CA-4336-4D8C-8AD0-A82128DBC29C}"/>
   </bookViews>
   <sheets>
     <sheet name="movie" sheetId="1" r:id="rId1"/>
@@ -291,9 +291,6 @@
     <t>https://m.media-amazon.com/images/M/MV5BNjk0MTkxNzQwOF5BMl5BanBnXkFtZTcwODM5OTMwNA@@._V1_UY317_CR20,0,214,317_AL_.jpg</t>
   </si>
   <si>
-    <t>Tim Robbins </t>
-  </si>
-  <si>
     <t>USA</t>
   </si>
   <si>
@@ -604,6 +601,9 @@
   </si>
   <si>
     <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/77/Breaking_Bad_logo.svg/480px-Breaking_Bad_logo.svg.png</t>
+  </si>
+  <si>
+    <t>Tim Robbins</t>
   </si>
 </sst>
 </file>
@@ -979,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C727F121-DA78-4B65-A21C-54231D42CC52}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1160,7 +1160,7 @@
         <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K4">
         <v>7</v>
@@ -1207,7 +1207,7 @@
         <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K5">
         <v>10</v>
@@ -1254,7 +1254,7 @@
         <v>76</v>
       </c>
       <c r="J6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K6">
         <v>13</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
         <v>176</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" t="s">
         <v>177</v>
-      </c>
-      <c r="D2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" t="s">
-        <v>178</v>
       </c>
       <c r="F2">
         <v>2017</v>
@@ -1367,13 +1367,13 @@
         <v>6</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="J2" t="s">
         <v>180</v>
       </c>
-      <c r="J2" t="s">
-        <v>181</v>
-      </c>
       <c r="K2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L2">
         <v>16</v>
@@ -1396,16 +1396,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F3">
         <v>2008</v>
@@ -1417,13 +1417,13 @@
         <v>62</v>
       </c>
       <c r="I3" t="s">
+        <v>182</v>
+      </c>
+      <c r="J3" t="s">
+        <v>186</v>
+      </c>
+      <c r="K3" t="s">
         <v>183</v>
-      </c>
-      <c r="J3" t="s">
-        <v>187</v>
-      </c>
-      <c r="K3" t="s">
-        <v>184</v>
       </c>
       <c r="L3">
         <v>19</v>
@@ -1511,7 +1511,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1538,7 +1538,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1549,7 +1549,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1560,7 +1560,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1571,7 +1571,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1582,7 +1582,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1593,7 +1593,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1604,7 +1604,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1615,7 +1615,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1626,7 +1626,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -1648,7 +1648,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -1659,7 +1659,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1670,7 +1670,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1681,7 +1681,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1692,7 +1692,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1743,13 +1743,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="F2" s="1">
         <v>36530</v>
@@ -1760,13 +1760,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F3" s="1">
         <v>35717</v>
@@ -1777,13 +1777,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F4" s="1">
         <v>35762</v>
@@ -1794,13 +1794,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F5" s="1">
         <v>35918</v>
@@ -1811,13 +1811,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" t="s">
         <v>155</v>
       </c>
-      <c r="C6" t="s">
-        <v>156</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F6" s="1">
         <v>36357</v>
@@ -1882,7 +1882,7 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1902,7 +1902,7 @@
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1922,7 +1922,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1942,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1962,7 +1962,7 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1975,7 +1975,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2030,19 +2030,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="1">
         <v>14342</v>
       </c>
       <c r="E3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2050,19 +2050,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" t="s">
         <v>106</v>
-      </c>
-      <c r="C4" t="s">
-        <v>107</v>
       </c>
       <c r="D4" s="1">
         <v>25779</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2070,7 +2070,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
         <v>71</v>
@@ -2079,10 +2079,10 @@
         <v>22585</v>
       </c>
       <c r="E5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" t="s">
         <v>122</v>
-      </c>
-      <c r="F5" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2090,19 +2090,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="1">
         <v>17154</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" t="s">
         <v>135</v>
-      </c>
-      <c r="F6" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -2125,8 +2125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C11756-1614-41F8-A344-B88D69E14D45}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2162,19 +2162,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>187</v>
       </c>
       <c r="C2" s="1">
         <v>21474</v>
       </c>
       <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>85</v>
-      </c>
-      <c r="F2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2182,19 +2182,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="1">
         <v>13667</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" t="s">
         <v>88</v>
-      </c>
-      <c r="F3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2202,19 +2202,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" s="1">
         <v>16756</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" t="s">
         <v>91</v>
-      </c>
-      <c r="F4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2222,19 +2222,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="1">
         <v>8860</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" t="s">
         <v>97</v>
-      </c>
-      <c r="F5" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2242,19 +2242,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="1">
         <v>14787</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" t="s">
         <v>100</v>
-      </c>
-      <c r="F6" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -2262,19 +2262,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="1">
         <v>14696</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" t="s">
         <v>103</v>
-      </c>
-      <c r="F7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -2282,19 +2282,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C8" s="1">
         <v>27059</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" t="s">
         <v>111</v>
-      </c>
-      <c r="F8" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -2302,19 +2302,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="1">
         <v>28949</v>
       </c>
       <c r="D9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" t="s">
         <v>114</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>115</v>
-      </c>
-      <c r="F9" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -2322,19 +2322,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" s="1">
         <v>24909</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" t="s">
         <v>118</v>
-      </c>
-      <c r="F10" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -2342,19 +2342,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C11" s="1">
         <v>29614</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" t="s">
         <v>125</v>
-      </c>
-      <c r="F11" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -2362,19 +2362,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C12" s="1">
         <v>21478</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" t="s">
         <v>128</v>
-      </c>
-      <c r="F12" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -2382,19 +2382,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C13" s="1">
         <v>14421</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" t="s">
         <v>131</v>
-      </c>
-      <c r="F13" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -2402,19 +2402,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C14" s="1">
         <v>19152</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" t="s">
         <v>138</v>
-      </c>
-      <c r="F14" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -2422,19 +2422,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C15" s="1">
         <v>23002</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" t="s">
         <v>141</v>
-      </c>
-      <c r="F15" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -2442,25 +2442,26 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C16" s="1">
         <v>16071</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E16" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" t="s">
         <v>144</v>
-      </c>
-      <c r="F16" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" xr:uid="{51D58754-C4F8-45CF-9F32-0B8DC9B4826B}"/>
     <hyperlink ref="E8" r:id="rId2" xr:uid="{E00C27C0-5B14-4CB8-B25B-D07B8987C3B6}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{5AF7200E-0C1D-4C48-B069-B08B4C7F021E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
